--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604121.8594283522</v>
+        <v>601683.4694699355</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324.2757366615657</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.0940549875553</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>254.5167172826949</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.2205257453331</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>130.3830505482325</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.18363018800104</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>315.996888278755</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>36.39022724310102</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.64230657388322</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>58.62576058208204</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.097775381403</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>74.56653414973313</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>139.3948594558967</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446352662</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>194.9930462126488</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>129.1078928223857</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766844</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699804</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605717885</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819351</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487391</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.2435806730879</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.4636264596503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922658</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.93450140722478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>38.61213096654814</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
         <v>66.5121164321834</v>
@@ -4328,16 +4328,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2988.141956006688</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2635.373300736574</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.721789066531</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.4618728343355</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>678.4618728343355</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.7640397872</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.661172912844</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1416.661172912844</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.244002875883</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>899.2544519778656</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.4618728343355</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2407.386839240652</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2033.921080979572</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.921080979572</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1609.020401376785</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1609.020401376785</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1609.020401376785</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1319.603231339825</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.820931986406</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477505</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.124661698547</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3266.387881627269</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3012.857404901105</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2681.794517557534</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2329.02586228742</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>1955.56010402634</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1565.420772050528</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.468527222536</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1851.974816624115</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1851.974816624115</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1630.208201193641</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1630.208201193641</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1375.523712987754</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1086.106542950793</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>858.1169920527757</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>858.1169920527757</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608048</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072594</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>733.658398959387</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.4235641958604</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>529.4873812679535</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>529.4873812679535</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>381.5742876855604</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1980.383566165529</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1691.307352480256</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1436.622864274369</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1147.205694237408</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>919.2161433393906</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.4235641958604</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0500279773688</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>264.0500279773688</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>96.85392869224876</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>96.85392869224876</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.85360074007</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,28 +5738,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121661</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121661</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="G22" t="n">
-        <v>177.721318527046</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273906</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.27973288552</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679633</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642672</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744655</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011247</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M27" t="n">
         <v>716.6687843969303</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>197.004324229773</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6725,13 +6725,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.5507239167081</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888012</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888012</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888012</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>900.1991887469478</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075794</v>
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.45810500191487</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.6582034825796</v>
       </c>
       <c r="W2" t="n">
-        <v>231.9202495646578</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.61145443660419</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613729303</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>22.488948250113</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582662</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922675</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>78.25894333073141</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194346</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922658</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.3683537222884</v>
       </c>
       <c r="H22" t="n">
-        <v>138.494940240506</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.494940240505</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.58839950884942</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.36835372228703</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294812</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.65015194487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4141550350965</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>952107.8203560821</v>
+        <v>952107.8203560816</v>
       </c>
     </row>
     <row r="3">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503241</v>
+        <v>375475.621250324</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190156</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450033</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="H2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="I2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="I2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
@@ -26341,16 +26341,16 @@
         <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="O2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189855</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504171</v>
+        <v>11452.26311504134</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832908</v>
+        <v>81924.2786383293</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704897</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53398.4215198329</v>
+        <v>53398.42151983275</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14210.2194556297</v>
@@ -26445,10 +26445,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1114601.486558495</v>
+        <v>-1114776.712876904</v>
       </c>
       <c r="C6" t="n">
         <v>209183.157522542</v>
       </c>
       <c r="D6" t="n">
-        <v>209183.1575225423</v>
+        <v>209183.1575225419</v>
       </c>
       <c r="E6" t="n">
-        <v>-26692.52096943816</v>
+        <v>-26738.42596500385</v>
       </c>
       <c r="F6" t="n">
-        <v>276781.7548291991</v>
+        <v>276747.016903764</v>
       </c>
       <c r="G6" t="n">
-        <v>288234.0179442406</v>
+        <v>288199.2800188053</v>
       </c>
       <c r="H6" t="n">
-        <v>288234.0179442408</v>
+        <v>288199.2800188054</v>
       </c>
       <c r="I6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188051</v>
       </c>
       <c r="J6" t="n">
-        <v>70702.81554696351</v>
+        <v>70668.0776215276</v>
       </c>
       <c r="K6" t="n">
-        <v>288234.0179442408</v>
+        <v>288199.2800188051</v>
       </c>
       <c r="L6" t="n">
-        <v>288234.017944241</v>
+        <v>288199.2800188051</v>
       </c>
       <c r="M6" t="n">
-        <v>206309.7393059118</v>
+        <v>206275.0013804758</v>
       </c>
       <c r="N6" t="n">
-        <v>285157.000588536</v>
+        <v>285122.2626631006</v>
       </c>
       <c r="O6" t="n">
-        <v>288234.017944241</v>
+        <v>288199.2800188051</v>
       </c>
       <c r="P6" t="n">
-        <v>288234.0179442409</v>
+        <v>288199.2800188054</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,37 +26790,37 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26969,19 +26969,19 @@
         <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237136</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237136</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>117.3207191527552</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>115.2143833957742</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>89.16589872793671</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>332.057338529412</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>70.24105037729862</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>183.1587220330682</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>250.4953367499448</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>145.2922095575381</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.14319333601</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>14.36561852031424</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>147.1281388806943</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29703,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29919,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396509</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33020,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L27" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>285.8867128925984</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977673</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L27" t="n">
-        <v>23.94570355317105</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899088</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>151.9123054782682</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
